--- a/test_data/Excel_USERS.xlsx
+++ b/test_data/Excel_USERS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AEGIS-backend\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7440FF-07AB-47A4-BA51-18E8F0817103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9250D9-7874-475A-9A91-27ACB9EB7CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="906">
   <si>
     <t>Callsign</t>
   </si>
@@ -2743,22 +2743,13 @@
     <t>NANO900</t>
   </si>
   <si>
-    <t>3 DA BN</t>
-  </si>
-  <si>
-    <t>6 DA BN</t>
-  </si>
-  <si>
-    <t>9 DA BN</t>
-  </si>
-  <si>
-    <t>18 DA BN</t>
-  </si>
-  <si>
     <t>ADMIN</t>
   </si>
   <si>
     <t>MEMBER</t>
+  </si>
+  <si>
+    <t>CHICKEN</t>
   </si>
 </sst>
 </file>
@@ -3124,8 +3115,8 @@
   </sheetPr>
   <dimension ref="A1:C901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A882" workbookViewId="0">
-      <selection activeCell="E900" sqref="E900"/>
+    <sheetView tabSelected="1" topLeftCell="A870" workbookViewId="0">
+      <selection activeCell="J894" sqref="J894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3146,10 +3137,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3157,10 +3148,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C3" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3176,10 +3167,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C5" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3187,10 +3178,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C6" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3198,7 +3189,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3209,7 +3200,7 @@
         <v>905</v>
       </c>
       <c r="C8" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3217,10 +3208,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C9" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3228,7 +3219,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3236,10 +3227,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C11" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,7 +3241,7 @@
         <v>905</v>
       </c>
       <c r="C12" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3258,7 +3249,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3266,10 +3257,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C14" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3277,10 +3268,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C15" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3296,10 +3287,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C17" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,10 +3298,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C18" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3318,7 +3309,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3329,7 +3320,7 @@
         <v>905</v>
       </c>
       <c r="C20" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3337,10 +3328,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C21" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3348,7 +3339,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3356,10 +3347,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C23" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3370,7 +3361,7 @@
         <v>905</v>
       </c>
       <c r="C24" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3378,7 +3369,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3386,10 +3377,10 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C26" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3397,10 +3388,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C27" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3416,10 +3407,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C29" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3427,10 +3418,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C30" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3438,7 +3429,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3449,7 +3440,7 @@
         <v>905</v>
       </c>
       <c r="C32" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3457,10 +3448,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C33" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3468,7 +3459,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3476,10 +3467,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C35" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3490,7 +3481,7 @@
         <v>905</v>
       </c>
       <c r="C36" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3498,7 +3489,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3506,10 +3497,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C38" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3517,10 +3508,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C39" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3536,10 +3527,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C41" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3547,10 +3538,10 @@
         <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C42" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3558,7 +3549,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3569,7 +3560,7 @@
         <v>905</v>
       </c>
       <c r="C44" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3577,10 +3568,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C45" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3588,7 +3579,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3596,10 +3587,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C47" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3610,7 +3601,7 @@
         <v>905</v>
       </c>
       <c r="C48" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3618,7 +3609,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3626,10 +3617,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C50" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3637,10 +3628,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C51" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3656,10 +3647,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C53" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3667,10 +3658,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C54" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,7 +3669,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3689,7 +3680,7 @@
         <v>905</v>
       </c>
       <c r="C56" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3697,10 +3688,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C57" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3708,7 +3699,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3716,10 +3707,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C59" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3730,7 +3721,7 @@
         <v>905</v>
       </c>
       <c r="C60" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3738,7 +3729,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3746,10 +3737,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C62" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3757,10 +3748,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C63" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3776,10 +3767,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C65" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3787,10 +3778,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C66" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3798,7 +3789,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3809,7 +3800,7 @@
         <v>905</v>
       </c>
       <c r="C68" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3817,10 +3808,10 @@
         <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C69" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3828,7 +3819,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3836,10 +3827,10 @@
         <v>72</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C71" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3850,7 +3841,7 @@
         <v>905</v>
       </c>
       <c r="C72" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3858,7 +3849,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3866,10 +3857,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C74" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3877,10 +3868,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C75" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3896,10 +3887,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C77" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3907,10 +3898,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C78" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3918,7 +3909,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,7 +3920,7 @@
         <v>905</v>
       </c>
       <c r="C80" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3937,10 +3928,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C81" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3948,7 +3939,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3956,10 +3947,10 @@
         <v>84</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C83" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3970,7 +3961,7 @@
         <v>905</v>
       </c>
       <c r="C84" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3978,7 +3969,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3986,10 +3977,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C86" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3997,10 +3988,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C87" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4016,10 +4007,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C89" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4027,10 +4018,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C90" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4038,7 +4029,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4049,7 +4040,7 @@
         <v>905</v>
       </c>
       <c r="C92" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4057,10 +4048,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C93" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4068,7 +4059,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4076,10 +4067,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C95" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4090,7 +4081,7 @@
         <v>905</v>
       </c>
       <c r="C96" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4098,7 +4089,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4106,10 +4097,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C98" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4117,10 +4108,10 @@
         <v>100</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C99" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4136,10 +4127,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C101" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4147,10 +4138,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C102" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4158,7 +4149,7 @@
         <v>104</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4169,7 +4160,7 @@
         <v>905</v>
       </c>
       <c r="C104" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4177,10 +4168,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C105" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4188,7 +4179,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4196,10 +4187,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C107" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4210,7 +4201,7 @@
         <v>905</v>
       </c>
       <c r="C108" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4218,7 +4209,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4226,10 +4217,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C110" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4237,10 +4228,10 @@
         <v>112</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C111" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4256,10 +4247,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C113" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4267,10 +4258,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C114" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4278,7 +4269,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4289,7 +4280,7 @@
         <v>905</v>
       </c>
       <c r="C116" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4297,10 +4288,10 @@
         <v>118</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C117" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4308,7 +4299,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4316,10 +4307,10 @@
         <v>120</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C119" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4330,7 +4321,7 @@
         <v>905</v>
       </c>
       <c r="C120" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4338,7 +4329,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4346,10 +4337,10 @@
         <v>123</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C122" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4357,10 +4348,10 @@
         <v>124</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C123" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4376,10 +4367,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C125" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4387,10 +4378,10 @@
         <v>127</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C126" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4398,7 +4389,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4409,7 +4400,7 @@
         <v>905</v>
       </c>
       <c r="C128" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4417,10 +4408,10 @@
         <v>130</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C129" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4428,7 +4419,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4436,10 +4427,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C131" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4450,7 +4441,7 @@
         <v>905</v>
       </c>
       <c r="C132" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4458,7 +4449,7 @@
         <v>134</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4466,10 +4457,10 @@
         <v>135</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C134" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4477,10 +4468,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C135" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4496,10 +4487,10 @@
         <v>138</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C137" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4507,10 +4498,10 @@
         <v>139</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C138" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4518,7 +4509,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4529,7 +4520,7 @@
         <v>905</v>
       </c>
       <c r="C140" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4537,10 +4528,10 @@
         <v>142</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C141" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4548,7 +4539,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4556,10 +4547,10 @@
         <v>144</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C143" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4570,7 +4561,7 @@
         <v>905</v>
       </c>
       <c r="C144" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4578,7 +4569,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4586,10 +4577,10 @@
         <v>147</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C146" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4597,10 +4588,10 @@
         <v>148</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C147" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4616,10 +4607,10 @@
         <v>150</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C149" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4627,10 +4618,10 @@
         <v>151</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C150" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4638,7 +4629,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4649,7 +4640,7 @@
         <v>905</v>
       </c>
       <c r="C152" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4657,10 +4648,10 @@
         <v>154</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C153" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4668,7 +4659,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4676,10 +4667,10 @@
         <v>156</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C155" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4690,7 +4681,7 @@
         <v>905</v>
       </c>
       <c r="C156" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4698,7 +4689,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4706,10 +4697,10 @@
         <v>159</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C158" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4717,10 +4708,10 @@
         <v>160</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C159" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4736,10 +4727,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C161" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4747,10 +4738,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C162" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4758,7 +4749,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4769,7 +4760,7 @@
         <v>905</v>
       </c>
       <c r="C164" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4777,10 +4768,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C165" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4788,7 +4779,7 @@
         <v>167</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4796,10 +4787,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C167" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4810,7 +4801,7 @@
         <v>905</v>
       </c>
       <c r="C168" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4818,7 +4809,7 @@
         <v>170</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4826,10 +4817,10 @@
         <v>171</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C170" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4837,10 +4828,10 @@
         <v>172</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C171" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4856,10 +4847,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C173" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4867,10 +4858,10 @@
         <v>175</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C174" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4878,7 +4869,7 @@
         <v>176</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4889,7 +4880,7 @@
         <v>905</v>
       </c>
       <c r="C176" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4897,10 +4888,10 @@
         <v>178</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C177" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4908,7 +4899,7 @@
         <v>179</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4916,10 +4907,10 @@
         <v>180</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C179" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4930,7 +4921,7 @@
         <v>905</v>
       </c>
       <c r="C180" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4938,7 +4929,7 @@
         <v>182</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4946,10 +4937,10 @@
         <v>183</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C182" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4957,10 +4948,10 @@
         <v>184</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C183" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4976,10 +4967,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C185" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4987,10 +4978,10 @@
         <v>187</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C186" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4998,7 +4989,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5009,7 +5000,7 @@
         <v>905</v>
       </c>
       <c r="C188" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5017,10 +5008,10 @@
         <v>190</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C189" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5028,7 +5019,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5036,10 +5027,10 @@
         <v>192</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C191" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5050,7 +5041,7 @@
         <v>905</v>
       </c>
       <c r="C192" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5058,7 +5049,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5066,10 +5057,10 @@
         <v>195</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C194" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5077,10 +5068,10 @@
         <v>196</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C195" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5096,10 +5087,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C197" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5107,10 +5098,10 @@
         <v>199</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C198" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5118,7 +5109,7 @@
         <v>200</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5129,7 +5120,7 @@
         <v>905</v>
       </c>
       <c r="C200" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5137,10 +5128,10 @@
         <v>202</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C201" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5148,7 +5139,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5156,10 +5147,10 @@
         <v>204</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C203" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5170,7 +5161,7 @@
         <v>905</v>
       </c>
       <c r="C204" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5178,7 +5169,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5186,10 +5177,10 @@
         <v>207</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C206" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5197,10 +5188,10 @@
         <v>208</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C207" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5216,10 +5207,10 @@
         <v>210</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C209" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5227,10 +5218,10 @@
         <v>211</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C210" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5238,7 +5229,7 @@
         <v>212</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5249,7 +5240,7 @@
         <v>905</v>
       </c>
       <c r="C212" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5257,10 +5248,10 @@
         <v>214</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C213" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5268,7 +5259,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5276,10 +5267,10 @@
         <v>216</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C215" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5290,7 +5281,7 @@
         <v>905</v>
       </c>
       <c r="C216" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5298,7 +5289,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5306,10 +5297,10 @@
         <v>219</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C218" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5317,10 +5308,10 @@
         <v>220</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C219" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5336,10 +5327,10 @@
         <v>222</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C221" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5347,10 +5338,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C222" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5358,7 +5349,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5369,7 +5360,7 @@
         <v>905</v>
       </c>
       <c r="C224" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5377,10 +5368,10 @@
         <v>226</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C225" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5388,7 +5379,7 @@
         <v>227</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5396,10 +5387,10 @@
         <v>228</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C227" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5410,7 +5401,7 @@
         <v>905</v>
       </c>
       <c r="C228" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5418,7 +5409,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5426,10 +5417,10 @@
         <v>231</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C230" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5437,10 +5428,10 @@
         <v>232</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C231" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5456,10 +5447,10 @@
         <v>234</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C233" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5467,10 +5458,10 @@
         <v>235</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C234" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5478,7 +5469,7 @@
         <v>236</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5489,7 +5480,7 @@
         <v>905</v>
       </c>
       <c r="C236" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5497,10 +5488,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C237" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5508,7 +5499,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5516,10 +5507,10 @@
         <v>240</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C239" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5530,7 +5521,7 @@
         <v>905</v>
       </c>
       <c r="C240" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5538,7 +5529,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5546,10 +5537,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C242" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5557,10 +5548,10 @@
         <v>244</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C243" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5576,10 +5567,10 @@
         <v>246</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C245" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5587,10 +5578,10 @@
         <v>247</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C246" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5598,7 +5589,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5609,7 +5600,7 @@
         <v>905</v>
       </c>
       <c r="C248" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5617,10 +5608,10 @@
         <v>250</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C249" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5628,7 +5619,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5636,10 +5627,10 @@
         <v>252</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C251" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5650,7 +5641,7 @@
         <v>905</v>
       </c>
       <c r="C252" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5658,7 +5649,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5666,10 +5657,10 @@
         <v>255</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C254" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5677,10 +5668,10 @@
         <v>256</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C255" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5696,10 +5687,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C257" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5707,10 +5698,10 @@
         <v>259</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C258" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5718,7 +5709,7 @@
         <v>260</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5729,7 +5720,7 @@
         <v>905</v>
       </c>
       <c r="C260" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5737,10 +5728,10 @@
         <v>262</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C261" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5748,7 +5739,7 @@
         <v>263</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5756,10 +5747,10 @@
         <v>264</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C263" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5770,7 +5761,7 @@
         <v>905</v>
       </c>
       <c r="C264" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5778,7 +5769,7 @@
         <v>266</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5786,10 +5777,10 @@
         <v>267</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C266" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5797,10 +5788,10 @@
         <v>268</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C267" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5816,10 +5807,10 @@
         <v>270</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C269" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5827,10 +5818,10 @@
         <v>271</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C270" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5838,7 +5829,7 @@
         <v>272</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5849,7 +5840,7 @@
         <v>905</v>
       </c>
       <c r="C272" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5857,10 +5848,10 @@
         <v>274</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C273" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5868,7 +5859,7 @@
         <v>275</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5876,10 +5867,10 @@
         <v>276</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C275" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5890,7 +5881,7 @@
         <v>905</v>
       </c>
       <c r="C276" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5898,7 +5889,7 @@
         <v>278</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5906,10 +5897,10 @@
         <v>279</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C278" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5917,10 +5908,10 @@
         <v>280</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C279" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5936,10 +5927,10 @@
         <v>282</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C281" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5947,10 +5938,10 @@
         <v>283</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C282" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5958,7 +5949,7 @@
         <v>284</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5969,7 +5960,7 @@
         <v>905</v>
       </c>
       <c r="C284" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5977,10 +5968,10 @@
         <v>286</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C285" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5988,7 +5979,7 @@
         <v>287</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5996,10 +5987,10 @@
         <v>288</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C287" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6010,7 +6001,7 @@
         <v>905</v>
       </c>
       <c r="C288" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6018,7 +6009,7 @@
         <v>290</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,10 +6017,10 @@
         <v>291</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C290" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6037,10 +6028,10 @@
         <v>292</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C291" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6056,10 +6047,10 @@
         <v>294</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C293" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6067,10 +6058,10 @@
         <v>295</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C294" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6078,7 +6069,7 @@
         <v>296</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6089,7 +6080,7 @@
         <v>905</v>
       </c>
       <c r="C296" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6097,10 +6088,10 @@
         <v>298</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C297" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6108,7 +6099,7 @@
         <v>299</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6116,10 +6107,10 @@
         <v>300</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C299" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6130,7 +6121,7 @@
         <v>905</v>
       </c>
       <c r="C300" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6138,7 +6129,7 @@
         <v>302</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6146,10 +6137,10 @@
         <v>303</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C302" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6157,10 +6148,10 @@
         <v>304</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C303" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6176,10 +6167,10 @@
         <v>306</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C305" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6187,10 +6178,10 @@
         <v>307</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C306" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6198,7 +6189,7 @@
         <v>308</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6209,7 +6200,7 @@
         <v>905</v>
       </c>
       <c r="C308" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6217,10 +6208,10 @@
         <v>310</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C309" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6228,7 +6219,7 @@
         <v>311</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6236,10 +6227,10 @@
         <v>312</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C311" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6250,7 +6241,7 @@
         <v>905</v>
       </c>
       <c r="C312" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6258,7 +6249,7 @@
         <v>314</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6266,10 +6257,10 @@
         <v>315</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C314" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6277,10 +6268,10 @@
         <v>316</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C315" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6296,10 +6287,10 @@
         <v>318</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C317" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6307,10 +6298,10 @@
         <v>319</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C318" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6318,7 +6309,7 @@
         <v>320</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6329,7 +6320,7 @@
         <v>905</v>
       </c>
       <c r="C320" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6337,10 +6328,10 @@
         <v>322</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C321" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6348,7 +6339,7 @@
         <v>323</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6356,10 +6347,10 @@
         <v>324</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C323" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6370,7 +6361,7 @@
         <v>905</v>
       </c>
       <c r="C324" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6378,7 +6369,7 @@
         <v>326</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6386,10 +6377,10 @@
         <v>327</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C326" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6397,10 +6388,10 @@
         <v>328</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C327" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6416,10 +6407,10 @@
         <v>330</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C329" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6427,10 +6418,10 @@
         <v>331</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C330" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6438,7 +6429,7 @@
         <v>332</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6449,7 +6440,7 @@
         <v>905</v>
       </c>
       <c r="C332" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6457,10 +6448,10 @@
         <v>334</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C333" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6468,7 +6459,7 @@
         <v>335</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6476,10 +6467,10 @@
         <v>336</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C335" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6490,7 +6481,7 @@
         <v>905</v>
       </c>
       <c r="C336" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6498,7 +6489,7 @@
         <v>338</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6506,10 +6497,10 @@
         <v>339</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C338" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6517,10 +6508,10 @@
         <v>340</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C339" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6536,10 +6527,10 @@
         <v>342</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C341" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6547,10 +6538,10 @@
         <v>343</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C342" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6558,7 +6549,7 @@
         <v>344</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6569,7 +6560,7 @@
         <v>905</v>
       </c>
       <c r="C344" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6577,10 +6568,10 @@
         <v>346</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C345" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6588,7 +6579,7 @@
         <v>347</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6596,10 +6587,10 @@
         <v>348</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C347" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6610,7 +6601,7 @@
         <v>905</v>
       </c>
       <c r="C348" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6618,7 +6609,7 @@
         <v>350</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6626,10 +6617,10 @@
         <v>351</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C350" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6637,10 +6628,10 @@
         <v>352</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C351" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6656,10 +6647,10 @@
         <v>354</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C353" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6667,10 +6658,10 @@
         <v>355</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C354" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6678,7 +6669,7 @@
         <v>356</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6689,7 +6680,7 @@
         <v>905</v>
       </c>
       <c r="C356" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6697,10 +6688,10 @@
         <v>358</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C357" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6708,7 +6699,7 @@
         <v>359</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6716,10 +6707,10 @@
         <v>360</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C359" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6730,7 +6721,7 @@
         <v>905</v>
       </c>
       <c r="C360" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6738,7 +6729,7 @@
         <v>362</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6746,10 +6737,10 @@
         <v>363</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C362" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6757,10 +6748,10 @@
         <v>364</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C363" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6776,10 +6767,10 @@
         <v>366</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C365" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6787,10 +6778,10 @@
         <v>367</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C366" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6798,7 +6789,7 @@
         <v>368</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6809,7 +6800,7 @@
         <v>905</v>
       </c>
       <c r="C368" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6817,10 +6808,10 @@
         <v>370</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C369" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6828,7 +6819,7 @@
         <v>371</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6836,10 +6827,10 @@
         <v>372</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C371" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6850,7 +6841,7 @@
         <v>905</v>
       </c>
       <c r="C372" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6858,7 +6849,7 @@
         <v>374</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6866,10 +6857,10 @@
         <v>375</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C374" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6877,10 +6868,10 @@
         <v>376</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C375" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6896,10 +6887,10 @@
         <v>378</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C377" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6907,10 +6898,10 @@
         <v>379</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C378" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6918,7 +6909,7 @@
         <v>380</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6929,7 +6920,7 @@
         <v>905</v>
       </c>
       <c r="C380" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6937,10 +6928,10 @@
         <v>382</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C381" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6948,7 +6939,7 @@
         <v>383</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6956,10 +6947,10 @@
         <v>384</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C383" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6970,7 +6961,7 @@
         <v>905</v>
       </c>
       <c r="C384" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6978,7 +6969,7 @@
         <v>386</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6986,10 +6977,10 @@
         <v>387</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C386" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6997,10 +6988,10 @@
         <v>388</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C387" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7016,10 +7007,10 @@
         <v>390</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C389" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7027,10 +7018,10 @@
         <v>391</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C390" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7038,7 +7029,7 @@
         <v>392</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7049,7 +7040,7 @@
         <v>905</v>
       </c>
       <c r="C392" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7057,10 +7048,10 @@
         <v>394</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C393" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7068,7 +7059,7 @@
         <v>395</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7076,10 +7067,10 @@
         <v>396</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C395" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7090,7 +7081,7 @@
         <v>905</v>
       </c>
       <c r="C396" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7098,7 +7089,7 @@
         <v>398</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7106,10 +7097,10 @@
         <v>399</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C398" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7117,10 +7108,10 @@
         <v>400</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C399" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7136,10 +7127,10 @@
         <v>402</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C401" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7147,10 +7138,10 @@
         <v>403</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C402" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7158,7 +7149,7 @@
         <v>404</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7169,7 +7160,7 @@
         <v>905</v>
       </c>
       <c r="C404" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7177,10 +7168,10 @@
         <v>406</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C405" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7188,7 +7179,7 @@
         <v>407</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7196,10 +7187,10 @@
         <v>408</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C407" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7210,7 +7201,7 @@
         <v>905</v>
       </c>
       <c r="C408" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7218,7 +7209,7 @@
         <v>410</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7226,10 +7217,10 @@
         <v>411</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C410" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7237,10 +7228,10 @@
         <v>412</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C411" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7256,10 +7247,10 @@
         <v>414</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C413" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7267,10 +7258,10 @@
         <v>415</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C414" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7278,7 +7269,7 @@
         <v>416</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7289,7 +7280,7 @@
         <v>905</v>
       </c>
       <c r="C416" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7297,10 +7288,10 @@
         <v>418</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C417" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7308,7 +7299,7 @@
         <v>419</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7316,10 +7307,10 @@
         <v>420</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C419" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7330,7 +7321,7 @@
         <v>905</v>
       </c>
       <c r="C420" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7338,7 +7329,7 @@
         <v>422</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7346,10 +7337,10 @@
         <v>423</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C422" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7357,10 +7348,10 @@
         <v>424</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C423" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7376,10 +7367,10 @@
         <v>426</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C425" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7387,10 +7378,10 @@
         <v>427</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C426" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7398,7 +7389,7 @@
         <v>428</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7409,7 +7400,7 @@
         <v>905</v>
       </c>
       <c r="C428" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7417,10 +7408,10 @@
         <v>430</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C429" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7428,7 +7419,7 @@
         <v>431</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7436,10 +7427,10 @@
         <v>432</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C431" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7450,7 +7441,7 @@
         <v>905</v>
       </c>
       <c r="C432" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7458,7 +7449,7 @@
         <v>434</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7466,10 +7457,10 @@
         <v>435</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C434" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7477,10 +7468,10 @@
         <v>436</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C435" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7496,10 +7487,10 @@
         <v>438</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C437" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7507,10 +7498,10 @@
         <v>439</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C438" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7518,7 +7509,7 @@
         <v>440</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7529,7 +7520,7 @@
         <v>905</v>
       </c>
       <c r="C440" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7537,10 +7528,10 @@
         <v>442</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C441" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7548,7 +7539,7 @@
         <v>443</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7556,10 +7547,10 @@
         <v>444</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C443" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7570,7 +7561,7 @@
         <v>905</v>
       </c>
       <c r="C444" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7578,7 +7569,7 @@
         <v>446</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7586,10 +7577,10 @@
         <v>447</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C446" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7597,10 +7588,10 @@
         <v>448</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C447" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7616,10 +7607,10 @@
         <v>450</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C449" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7627,10 +7618,10 @@
         <v>451</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C450" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7638,7 +7629,7 @@
         <v>452</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7649,7 +7640,7 @@
         <v>905</v>
       </c>
       <c r="C452" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7657,10 +7648,10 @@
         <v>454</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C453" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7668,7 +7659,7 @@
         <v>455</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7676,10 +7667,10 @@
         <v>456</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C455" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7690,7 +7681,7 @@
         <v>905</v>
       </c>
       <c r="C456" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7698,7 +7689,7 @@
         <v>458</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7706,10 +7697,10 @@
         <v>459</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C458" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7717,10 +7708,10 @@
         <v>460</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C459" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7736,10 +7727,10 @@
         <v>462</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C461" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7747,10 +7738,10 @@
         <v>463</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C462" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7758,7 +7749,7 @@
         <v>464</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7769,7 +7760,7 @@
         <v>905</v>
       </c>
       <c r="C464" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7777,10 +7768,10 @@
         <v>466</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C465" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7788,7 +7779,7 @@
         <v>467</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7796,10 +7787,10 @@
         <v>468</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C467" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7810,7 +7801,7 @@
         <v>905</v>
       </c>
       <c r="C468" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7818,7 +7809,7 @@
         <v>470</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7826,10 +7817,10 @@
         <v>471</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C470" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7837,10 +7828,10 @@
         <v>472</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C471" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7856,10 +7847,10 @@
         <v>474</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C473" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7867,10 +7858,10 @@
         <v>475</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C474" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7878,7 +7869,7 @@
         <v>476</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7889,7 +7880,7 @@
         <v>905</v>
       </c>
       <c r="C476" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7897,10 +7888,10 @@
         <v>478</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C477" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7908,7 +7899,7 @@
         <v>479</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7916,10 +7907,10 @@
         <v>480</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C479" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7930,7 +7921,7 @@
         <v>905</v>
       </c>
       <c r="C480" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7938,7 +7929,7 @@
         <v>482</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7946,10 +7937,10 @@
         <v>483</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C482" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7957,10 +7948,10 @@
         <v>484</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C483" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7976,10 +7967,10 @@
         <v>486</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C485" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7987,10 +7978,10 @@
         <v>487</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C486" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7998,7 +7989,7 @@
         <v>488</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8009,7 +8000,7 @@
         <v>905</v>
       </c>
       <c r="C488" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8017,10 +8008,10 @@
         <v>490</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C489" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8028,7 +8019,7 @@
         <v>491</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8036,10 +8027,10 @@
         <v>492</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C491" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8050,7 +8041,7 @@
         <v>905</v>
       </c>
       <c r="C492" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8058,7 +8049,7 @@
         <v>494</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8066,10 +8057,10 @@
         <v>495</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C494" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8077,10 +8068,10 @@
         <v>496</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C495" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8096,10 +8087,10 @@
         <v>498</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C497" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8107,10 +8098,10 @@
         <v>499</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C498" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8118,7 +8109,7 @@
         <v>500</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8129,7 +8120,7 @@
         <v>905</v>
       </c>
       <c r="C500" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8137,10 +8128,10 @@
         <v>502</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C501" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8148,7 +8139,7 @@
         <v>503</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8156,10 +8147,10 @@
         <v>504</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C503" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8170,7 +8161,7 @@
         <v>905</v>
       </c>
       <c r="C504" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8178,7 +8169,7 @@
         <v>506</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8186,10 +8177,10 @@
         <v>507</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C506" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8197,10 +8188,10 @@
         <v>508</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C507" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8216,10 +8207,10 @@
         <v>510</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C509" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8227,10 +8218,10 @@
         <v>511</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C510" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8238,7 +8229,7 @@
         <v>512</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8249,7 +8240,7 @@
         <v>905</v>
       </c>
       <c r="C512" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8257,10 +8248,10 @@
         <v>514</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C513" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8268,7 +8259,7 @@
         <v>515</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8276,10 +8267,10 @@
         <v>516</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C515" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8290,7 +8281,7 @@
         <v>905</v>
       </c>
       <c r="C516" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8298,7 +8289,7 @@
         <v>518</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8306,10 +8297,10 @@
         <v>519</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C518" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8317,10 +8308,10 @@
         <v>520</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C519" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8336,10 +8327,10 @@
         <v>522</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C521" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="522" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8347,10 +8338,10 @@
         <v>523</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C522" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8358,7 +8349,7 @@
         <v>524</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8369,7 +8360,7 @@
         <v>905</v>
       </c>
       <c r="C524" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8377,10 +8368,10 @@
         <v>526</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C525" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8388,7 +8379,7 @@
         <v>527</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8396,10 +8387,10 @@
         <v>528</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C527" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8410,7 +8401,7 @@
         <v>905</v>
       </c>
       <c r="C528" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8418,7 +8409,7 @@
         <v>530</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8426,10 +8417,10 @@
         <v>531</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C530" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="531" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8437,10 +8428,10 @@
         <v>532</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C531" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="532" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8456,10 +8447,10 @@
         <v>534</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C533" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8467,10 +8458,10 @@
         <v>535</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C534" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8478,7 +8469,7 @@
         <v>536</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8489,7 +8480,7 @@
         <v>905</v>
       </c>
       <c r="C536" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8497,10 +8488,10 @@
         <v>538</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C537" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8508,7 +8499,7 @@
         <v>539</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8516,10 +8507,10 @@
         <v>540</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C539" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8530,7 +8521,7 @@
         <v>905</v>
       </c>
       <c r="C540" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="541" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8538,7 +8529,7 @@
         <v>542</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="542" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8546,10 +8537,10 @@
         <v>543</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C542" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="543" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8557,10 +8548,10 @@
         <v>544</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C543" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8576,10 +8567,10 @@
         <v>546</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C545" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8587,10 +8578,10 @@
         <v>547</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C546" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8598,7 +8589,7 @@
         <v>548</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="548" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8609,7 +8600,7 @@
         <v>905</v>
       </c>
       <c r="C548" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8617,10 +8608,10 @@
         <v>550</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C549" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8628,7 +8619,7 @@
         <v>551</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="551" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8636,10 +8627,10 @@
         <v>552</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C551" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8650,7 +8641,7 @@
         <v>905</v>
       </c>
       <c r="C552" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="553" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8658,7 +8649,7 @@
         <v>554</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="554" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8666,10 +8657,10 @@
         <v>555</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C554" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="555" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8677,10 +8668,10 @@
         <v>556</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C555" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="556" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8696,10 +8687,10 @@
         <v>558</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C557" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="558" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8707,10 +8698,10 @@
         <v>559</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C558" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="559" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8718,7 +8709,7 @@
         <v>560</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="560" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8729,7 +8720,7 @@
         <v>905</v>
       </c>
       <c r="C560" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="561" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8737,10 +8728,10 @@
         <v>562</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C561" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="562" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8748,7 +8739,7 @@
         <v>563</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="563" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8756,10 +8747,10 @@
         <v>564</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C563" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="564" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8770,7 +8761,7 @@
         <v>905</v>
       </c>
       <c r="C564" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="565" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8778,7 +8769,7 @@
         <v>566</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="566" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8786,10 +8777,10 @@
         <v>567</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C566" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="567" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8797,10 +8788,10 @@
         <v>568</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C567" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="568" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8816,10 +8807,10 @@
         <v>570</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C569" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="570" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8827,10 +8818,10 @@
         <v>571</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C570" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8838,7 +8829,7 @@
         <v>572</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="572" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8849,7 +8840,7 @@
         <v>905</v>
       </c>
       <c r="C572" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="573" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8857,10 +8848,10 @@
         <v>574</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C573" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="574" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8868,7 +8859,7 @@
         <v>575</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8876,10 +8867,10 @@
         <v>576</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C575" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="576" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8890,7 +8881,7 @@
         <v>905</v>
       </c>
       <c r="C576" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8898,7 +8889,7 @@
         <v>578</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="578" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8906,10 +8897,10 @@
         <v>579</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C578" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="579" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8917,10 +8908,10 @@
         <v>580</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C579" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8936,10 +8927,10 @@
         <v>582</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C581" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="582" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8947,10 +8938,10 @@
         <v>583</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C582" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8958,7 +8949,7 @@
         <v>584</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8969,7 +8960,7 @@
         <v>905</v>
       </c>
       <c r="C584" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8977,10 +8968,10 @@
         <v>586</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C585" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8988,7 +8979,7 @@
         <v>587</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8996,10 +8987,10 @@
         <v>588</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C587" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9010,7 +9001,7 @@
         <v>905</v>
       </c>
       <c r="C588" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9018,7 +9009,7 @@
         <v>590</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9026,10 +9017,10 @@
         <v>591</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C590" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9037,10 +9028,10 @@
         <v>592</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C591" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9056,10 +9047,10 @@
         <v>594</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C593" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9067,10 +9058,10 @@
         <v>595</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C594" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9078,7 +9069,7 @@
         <v>596</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9089,7 +9080,7 @@
         <v>905</v>
       </c>
       <c r="C596" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9097,10 +9088,10 @@
         <v>598</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C597" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9108,7 +9099,7 @@
         <v>599</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9116,10 +9107,10 @@
         <v>600</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C599" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9130,7 +9121,7 @@
         <v>905</v>
       </c>
       <c r="C600" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9138,7 +9129,7 @@
         <v>602</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9146,10 +9137,10 @@
         <v>603</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C602" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9157,10 +9148,10 @@
         <v>604</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C603" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9176,10 +9167,10 @@
         <v>606</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C605" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9187,10 +9178,10 @@
         <v>607</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C606" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9198,7 +9189,7 @@
         <v>608</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9209,7 +9200,7 @@
         <v>905</v>
       </c>
       <c r="C608" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9217,10 +9208,10 @@
         <v>610</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C609" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9228,7 +9219,7 @@
         <v>611</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9236,10 +9227,10 @@
         <v>612</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C611" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9250,7 +9241,7 @@
         <v>905</v>
       </c>
       <c r="C612" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9258,7 +9249,7 @@
         <v>614</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9266,10 +9257,10 @@
         <v>615</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C614" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9277,10 +9268,10 @@
         <v>616</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C615" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9296,10 +9287,10 @@
         <v>618</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C617" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="618" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9307,10 +9298,10 @@
         <v>619</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C618" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9318,7 +9309,7 @@
         <v>620</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="620" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9329,7 +9320,7 @@
         <v>905</v>
       </c>
       <c r="C620" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9337,10 +9328,10 @@
         <v>622</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C621" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="622" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9348,7 +9339,7 @@
         <v>623</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9356,10 +9347,10 @@
         <v>624</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C623" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9370,7 +9361,7 @@
         <v>905</v>
       </c>
       <c r="C624" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9378,7 +9369,7 @@
         <v>626</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9386,10 +9377,10 @@
         <v>627</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C626" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9397,10 +9388,10 @@
         <v>628</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C627" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9416,10 +9407,10 @@
         <v>630</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C629" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="630" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9427,10 +9418,10 @@
         <v>631</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C630" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="631" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9438,7 +9429,7 @@
         <v>632</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="632" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9449,7 +9440,7 @@
         <v>905</v>
       </c>
       <c r="C632" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9457,10 +9448,10 @@
         <v>634</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C633" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9468,7 +9459,7 @@
         <v>635</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9476,10 +9467,10 @@
         <v>636</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C635" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9490,7 +9481,7 @@
         <v>905</v>
       </c>
       <c r="C636" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9498,7 +9489,7 @@
         <v>638</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="638" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9506,10 +9497,10 @@
         <v>639</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C638" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9517,10 +9508,10 @@
         <v>640</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C639" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9536,10 +9527,10 @@
         <v>642</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C641" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9547,10 +9538,10 @@
         <v>643</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C642" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9558,7 +9549,7 @@
         <v>644</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9569,7 +9560,7 @@
         <v>905</v>
       </c>
       <c r="C644" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9577,10 +9568,10 @@
         <v>646</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C645" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9588,7 +9579,7 @@
         <v>647</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9596,10 +9587,10 @@
         <v>648</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C647" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9610,7 +9601,7 @@
         <v>905</v>
       </c>
       <c r="C648" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9618,7 +9609,7 @@
         <v>650</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9626,10 +9617,10 @@
         <v>651</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C650" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9637,10 +9628,10 @@
         <v>652</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C651" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9656,10 +9647,10 @@
         <v>654</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C653" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9667,10 +9658,10 @@
         <v>655</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C654" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="655" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9678,7 +9669,7 @@
         <v>656</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="656" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9689,7 +9680,7 @@
         <v>905</v>
       </c>
       <c r="C656" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="657" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9697,10 +9688,10 @@
         <v>658</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C657" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="658" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9708,7 +9699,7 @@
         <v>659</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="659" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9716,10 +9707,10 @@
         <v>660</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C659" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="660" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9730,7 +9721,7 @@
         <v>905</v>
       </c>
       <c r="C660" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9738,7 +9729,7 @@
         <v>662</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="662" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9746,10 +9737,10 @@
         <v>663</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C662" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9757,10 +9748,10 @@
         <v>664</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C663" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9776,10 +9767,10 @@
         <v>666</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C665" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9787,10 +9778,10 @@
         <v>667</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C666" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="667" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9798,7 +9789,7 @@
         <v>668</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="668" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9809,7 +9800,7 @@
         <v>905</v>
       </c>
       <c r="C668" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="669" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9817,10 +9808,10 @@
         <v>670</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C669" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="670" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9828,7 +9819,7 @@
         <v>671</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="671" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9836,10 +9827,10 @@
         <v>672</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C671" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="672" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9850,7 +9841,7 @@
         <v>905</v>
       </c>
       <c r="C672" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="673" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9858,7 +9849,7 @@
         <v>674</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9866,10 +9857,10 @@
         <v>675</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C674" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="675" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9877,10 +9868,10 @@
         <v>676</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C675" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="676" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9896,10 +9887,10 @@
         <v>678</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C677" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="678" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9907,10 +9898,10 @@
         <v>679</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C678" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="679" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9918,7 +9909,7 @@
         <v>680</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="680" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9929,7 +9920,7 @@
         <v>905</v>
       </c>
       <c r="C680" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="681" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9937,10 +9928,10 @@
         <v>682</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C681" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="682" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9948,7 +9939,7 @@
         <v>683</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="683" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9956,10 +9947,10 @@
         <v>684</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C683" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="684" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9970,7 +9961,7 @@
         <v>905</v>
       </c>
       <c r="C684" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="685" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9978,7 +9969,7 @@
         <v>686</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="686" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9986,10 +9977,10 @@
         <v>687</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C686" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="687" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9997,10 +9988,10 @@
         <v>688</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C687" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="688" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10016,10 +10007,10 @@
         <v>690</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C689" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10027,10 +10018,10 @@
         <v>691</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C690" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="691" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10038,7 +10029,7 @@
         <v>692</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="692" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10049,7 +10040,7 @@
         <v>905</v>
       </c>
       <c r="C692" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="693" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10057,10 +10048,10 @@
         <v>694</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C693" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="694" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10068,7 +10059,7 @@
         <v>695</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="695" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10076,10 +10067,10 @@
         <v>696</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C695" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="696" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10090,7 +10081,7 @@
         <v>905</v>
       </c>
       <c r="C696" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="697" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10098,7 +10089,7 @@
         <v>698</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="698" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10106,10 +10097,10 @@
         <v>699</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C698" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="699" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10117,10 +10108,10 @@
         <v>700</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C699" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="700" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10136,10 +10127,10 @@
         <v>702</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C701" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="702" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10147,10 +10138,10 @@
         <v>703</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C702" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="703" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10158,7 +10149,7 @@
         <v>704</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="704" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10169,7 +10160,7 @@
         <v>905</v>
       </c>
       <c r="C704" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="705" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10177,10 +10168,10 @@
         <v>706</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C705" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="706" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10188,7 +10179,7 @@
         <v>707</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="707" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10196,10 +10187,10 @@
         <v>708</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C707" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="708" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10210,7 +10201,7 @@
         <v>905</v>
       </c>
       <c r="C708" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="709" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10218,7 +10209,7 @@
         <v>710</v>
       </c>
       <c r="B709" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="710" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10226,10 +10217,10 @@
         <v>711</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C710" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="711" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10237,10 +10228,10 @@
         <v>712</v>
       </c>
       <c r="B711" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C711" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="712" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10256,10 +10247,10 @@
         <v>714</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C713" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="714" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10267,10 +10258,10 @@
         <v>715</v>
       </c>
       <c r="B714" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C714" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="715" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10278,7 +10269,7 @@
         <v>716</v>
       </c>
       <c r="B715" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="716" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10289,7 +10280,7 @@
         <v>905</v>
       </c>
       <c r="C716" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="717" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10297,10 +10288,10 @@
         <v>718</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C717" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="718" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10308,7 +10299,7 @@
         <v>719</v>
       </c>
       <c r="B718" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="719" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10316,10 +10307,10 @@
         <v>720</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C719" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="720" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10330,7 +10321,7 @@
         <v>905</v>
       </c>
       <c r="C720" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="721" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10338,7 +10329,7 @@
         <v>722</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="722" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10346,10 +10337,10 @@
         <v>723</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C722" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="723" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10357,10 +10348,10 @@
         <v>724</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C723" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="724" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10376,10 +10367,10 @@
         <v>726</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C725" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="726" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10387,10 +10378,10 @@
         <v>727</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C726" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="727" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10398,7 +10389,7 @@
         <v>728</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="728" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10409,7 +10400,7 @@
         <v>905</v>
       </c>
       <c r="C728" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="729" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10417,10 +10408,10 @@
         <v>730</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C729" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="730" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10428,7 +10419,7 @@
         <v>731</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="731" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10436,10 +10427,10 @@
         <v>732</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C731" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="732" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10450,7 +10441,7 @@
         <v>905</v>
       </c>
       <c r="C732" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="733" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10458,7 +10449,7 @@
         <v>734</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="734" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10466,10 +10457,10 @@
         <v>735</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C734" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="735" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10477,10 +10468,10 @@
         <v>736</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C735" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="736" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10496,10 +10487,10 @@
         <v>738</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C737" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="738" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10507,10 +10498,10 @@
         <v>739</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C738" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="739" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10518,7 +10509,7 @@
         <v>740</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="740" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10529,7 +10520,7 @@
         <v>905</v>
       </c>
       <c r="C740" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="741" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10537,10 +10528,10 @@
         <v>742</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C741" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="742" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10548,7 +10539,7 @@
         <v>743</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="743" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10556,10 +10547,10 @@
         <v>744</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C743" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="744" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10570,7 +10561,7 @@
         <v>905</v>
       </c>
       <c r="C744" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="745" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10578,7 +10569,7 @@
         <v>746</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="746" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10586,10 +10577,10 @@
         <v>747</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C746" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="747" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10597,10 +10588,10 @@
         <v>748</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C747" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="748" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10616,10 +10607,10 @@
         <v>750</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C749" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="750" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10627,10 +10618,10 @@
         <v>751</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C750" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="751" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10638,7 +10629,7 @@
         <v>752</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="752" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10649,7 +10640,7 @@
         <v>905</v>
       </c>
       <c r="C752" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="753" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10657,10 +10648,10 @@
         <v>754</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C753" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="754" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10668,7 +10659,7 @@
         <v>755</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="755" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10676,10 +10667,10 @@
         <v>756</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C755" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="756" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10690,7 +10681,7 @@
         <v>905</v>
       </c>
       <c r="C756" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="757" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10698,7 +10689,7 @@
         <v>758</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="758" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10706,10 +10697,10 @@
         <v>759</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C758" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="759" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10717,10 +10708,10 @@
         <v>760</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C759" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="760" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10736,10 +10727,10 @@
         <v>762</v>
       </c>
       <c r="B761" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C761" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="762" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10747,10 +10738,10 @@
         <v>763</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C762" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="763" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10758,7 +10749,7 @@
         <v>764</v>
       </c>
       <c r="B763" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="764" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10769,7 +10760,7 @@
         <v>905</v>
       </c>
       <c r="C764" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="765" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10777,10 +10768,10 @@
         <v>766</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C765" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="766" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10788,7 +10779,7 @@
         <v>767</v>
       </c>
       <c r="B766" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="767" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10796,10 +10787,10 @@
         <v>768</v>
       </c>
       <c r="B767" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C767" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="768" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10810,7 +10801,7 @@
         <v>905</v>
       </c>
       <c r="C768" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="769" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10818,7 +10809,7 @@
         <v>770</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="770" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10826,10 +10817,10 @@
         <v>771</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C770" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="771" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10837,10 +10828,10 @@
         <v>772</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C771" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="772" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10856,10 +10847,10 @@
         <v>774</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C773" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="774" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10867,10 +10858,10 @@
         <v>775</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C774" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="775" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10878,7 +10869,7 @@
         <v>776</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="776" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10889,7 +10880,7 @@
         <v>905</v>
       </c>
       <c r="C776" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="777" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10897,10 +10888,10 @@
         <v>778</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C777" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="778" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10908,7 +10899,7 @@
         <v>779</v>
       </c>
       <c r="B778" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="779" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10916,10 +10907,10 @@
         <v>780</v>
       </c>
       <c r="B779" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C779" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="780" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10930,7 +10921,7 @@
         <v>905</v>
       </c>
       <c r="C780" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="781" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10938,7 +10929,7 @@
         <v>782</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="782" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10946,10 +10937,10 @@
         <v>783</v>
       </c>
       <c r="B782" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C782" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="783" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10957,10 +10948,10 @@
         <v>784</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C783" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="784" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10976,10 +10967,10 @@
         <v>786</v>
       </c>
       <c r="B785" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C785" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="786" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10987,10 +10978,10 @@
         <v>787</v>
       </c>
       <c r="B786" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C786" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="787" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10998,7 +10989,7 @@
         <v>788</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="788" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11009,7 +11000,7 @@
         <v>905</v>
       </c>
       <c r="C788" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="789" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11017,10 +11008,10 @@
         <v>790</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C789" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="790" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11028,7 +11019,7 @@
         <v>791</v>
       </c>
       <c r="B790" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="791" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11036,10 +11027,10 @@
         <v>792</v>
       </c>
       <c r="B791" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C791" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="792" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11050,7 +11041,7 @@
         <v>905</v>
       </c>
       <c r="C792" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="793" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11058,7 +11049,7 @@
         <v>794</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="794" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11066,10 +11057,10 @@
         <v>795</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C794" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="795" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11077,10 +11068,10 @@
         <v>796</v>
       </c>
       <c r="B795" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C795" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="796" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11096,10 +11087,10 @@
         <v>798</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C797" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="798" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11107,10 +11098,10 @@
         <v>799</v>
       </c>
       <c r="B798" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C798" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="799" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11118,7 +11109,7 @@
         <v>800</v>
       </c>
       <c r="B799" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="800" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11129,7 +11120,7 @@
         <v>905</v>
       </c>
       <c r="C800" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="801" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11137,10 +11128,10 @@
         <v>802</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C801" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="802" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11148,7 +11139,7 @@
         <v>803</v>
       </c>
       <c r="B802" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="803" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11156,10 +11147,10 @@
         <v>804</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C803" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="804" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11170,7 +11161,7 @@
         <v>905</v>
       </c>
       <c r="C804" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="805" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11178,7 +11169,7 @@
         <v>806</v>
       </c>
       <c r="B805" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="806" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11186,10 +11177,10 @@
         <v>807</v>
       </c>
       <c r="B806" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C806" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="807" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11197,10 +11188,10 @@
         <v>808</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C807" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="808" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11216,10 +11207,10 @@
         <v>810</v>
       </c>
       <c r="B809" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C809" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="810" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11227,10 +11218,10 @@
         <v>811</v>
       </c>
       <c r="B810" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C810" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="811" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11238,7 +11229,7 @@
         <v>812</v>
       </c>
       <c r="B811" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="812" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11249,7 +11240,7 @@
         <v>905</v>
       </c>
       <c r="C812" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="813" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11257,10 +11248,10 @@
         <v>814</v>
       </c>
       <c r="B813" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C813" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="814" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11268,7 +11259,7 @@
         <v>815</v>
       </c>
       <c r="B814" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="815" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11276,10 +11267,10 @@
         <v>816</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C815" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="816" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11290,7 +11281,7 @@
         <v>905</v>
       </c>
       <c r="C816" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="817" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11298,7 +11289,7 @@
         <v>818</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="818" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11306,10 +11297,10 @@
         <v>819</v>
       </c>
       <c r="B818" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C818" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="819" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11317,10 +11308,10 @@
         <v>820</v>
       </c>
       <c r="B819" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C819" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="820" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11336,10 +11327,10 @@
         <v>822</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C821" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="822" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11347,10 +11338,10 @@
         <v>823</v>
       </c>
       <c r="B822" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C822" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="823" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11358,7 +11349,7 @@
         <v>824</v>
       </c>
       <c r="B823" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="824" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11369,7 +11360,7 @@
         <v>905</v>
       </c>
       <c r="C824" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="825" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11377,10 +11368,10 @@
         <v>826</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C825" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="826" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11388,7 +11379,7 @@
         <v>827</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="827" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11396,10 +11387,10 @@
         <v>828</v>
       </c>
       <c r="B827" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C827" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="828" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11410,7 +11401,7 @@
         <v>905</v>
       </c>
       <c r="C828" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="829" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11418,7 +11409,7 @@
         <v>830</v>
       </c>
       <c r="B829" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="830" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11426,10 +11417,10 @@
         <v>831</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C830" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="831" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11437,10 +11428,10 @@
         <v>832</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C831" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="832" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11456,10 +11447,10 @@
         <v>834</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C833" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="834" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11467,10 +11458,10 @@
         <v>835</v>
       </c>
       <c r="B834" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C834" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="835" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11478,7 +11469,7 @@
         <v>836</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="836" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11489,7 +11480,7 @@
         <v>905</v>
       </c>
       <c r="C836" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="837" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11497,10 +11488,10 @@
         <v>838</v>
       </c>
       <c r="B837" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C837" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="838" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11508,7 +11499,7 @@
         <v>839</v>
       </c>
       <c r="B838" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="839" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11516,10 +11507,10 @@
         <v>840</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C839" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="840" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11530,7 +11521,7 @@
         <v>905</v>
       </c>
       <c r="C840" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="841" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11538,7 +11529,7 @@
         <v>842</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="842" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11546,10 +11537,10 @@
         <v>843</v>
       </c>
       <c r="B842" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C842" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="843" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11557,10 +11548,10 @@
         <v>844</v>
       </c>
       <c r="B843" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C843" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="844" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11576,10 +11567,10 @@
         <v>846</v>
       </c>
       <c r="B845" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C845" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="846" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11587,10 +11578,10 @@
         <v>847</v>
       </c>
       <c r="B846" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C846" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="847" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11598,7 +11589,7 @@
         <v>848</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="848" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11609,7 +11600,7 @@
         <v>905</v>
       </c>
       <c r="C848" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="849" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11617,10 +11608,10 @@
         <v>850</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C849" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="850" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11628,7 +11619,7 @@
         <v>851</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="851" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11636,10 +11627,10 @@
         <v>852</v>
       </c>
       <c r="B851" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C851" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="852" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11650,7 +11641,7 @@
         <v>905</v>
       </c>
       <c r="C852" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="853" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11658,7 +11649,7 @@
         <v>854</v>
       </c>
       <c r="B853" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="854" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11666,10 +11657,10 @@
         <v>855</v>
       </c>
       <c r="B854" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C854" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="855" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11677,10 +11668,10 @@
         <v>856</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C855" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="856" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11696,10 +11687,10 @@
         <v>858</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C857" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="858" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11707,10 +11698,10 @@
         <v>859</v>
       </c>
       <c r="B858" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C858" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="859" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11718,7 +11709,7 @@
         <v>860</v>
       </c>
       <c r="B859" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="860" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11729,7 +11720,7 @@
         <v>905</v>
       </c>
       <c r="C860" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="861" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11737,10 +11728,10 @@
         <v>862</v>
       </c>
       <c r="B861" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C861" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="862" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11748,7 +11739,7 @@
         <v>863</v>
       </c>
       <c r="B862" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="863" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11756,10 +11747,10 @@
         <v>864</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C863" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="864" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11770,7 +11761,7 @@
         <v>905</v>
       </c>
       <c r="C864" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="865" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11778,7 +11769,7 @@
         <v>866</v>
       </c>
       <c r="B865" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="866" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11786,10 +11777,10 @@
         <v>867</v>
       </c>
       <c r="B866" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C866" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="867" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11797,10 +11788,10 @@
         <v>868</v>
       </c>
       <c r="B867" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C867" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="868" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11816,10 +11807,10 @@
         <v>870</v>
       </c>
       <c r="B869" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C869" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="870" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11827,10 +11818,10 @@
         <v>871</v>
       </c>
       <c r="B870" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C870" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="871" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11838,7 +11829,7 @@
         <v>872</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="872" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11849,7 +11840,7 @@
         <v>905</v>
       </c>
       <c r="C872" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="873" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11857,10 +11848,10 @@
         <v>874</v>
       </c>
       <c r="B873" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C873" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="874" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11868,7 +11859,7 @@
         <v>875</v>
       </c>
       <c r="B874" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="875" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11876,10 +11867,10 @@
         <v>876</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C875" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="876" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11890,7 +11881,7 @@
         <v>905</v>
       </c>
       <c r="C876" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="877" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11898,7 +11889,7 @@
         <v>878</v>
       </c>
       <c r="B877" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="878" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11906,10 +11897,10 @@
         <v>879</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C878" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="879" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11917,10 +11908,10 @@
         <v>880</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C879" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="880" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11936,10 +11927,10 @@
         <v>882</v>
       </c>
       <c r="B881" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C881" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="882" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11947,10 +11938,10 @@
         <v>883</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C882" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="883" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11958,7 +11949,7 @@
         <v>884</v>
       </c>
       <c r="B883" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="884" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11969,7 +11960,7 @@
         <v>905</v>
       </c>
       <c r="C884" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="885" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11977,10 +11968,10 @@
         <v>886</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C885" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="886" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11988,7 +11979,7 @@
         <v>887</v>
       </c>
       <c r="B886" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="887" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11996,10 +11987,10 @@
         <v>888</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C887" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="888" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12010,7 +12001,7 @@
         <v>905</v>
       </c>
       <c r="C888" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="889" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12018,7 +12009,7 @@
         <v>890</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="890" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12026,10 +12017,10 @@
         <v>891</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C890" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="891" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12037,10 +12028,10 @@
         <v>892</v>
       </c>
       <c r="B891" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C891" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="892" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12056,10 +12047,10 @@
         <v>894</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C893" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="894" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12067,10 +12058,10 @@
         <v>895</v>
       </c>
       <c r="B894" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C894" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="895" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12078,7 +12069,7 @@
         <v>896</v>
       </c>
       <c r="B895" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="896" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12089,7 +12080,7 @@
         <v>905</v>
       </c>
       <c r="C896" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="897" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12097,10 +12088,10 @@
         <v>898</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C897" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="898" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12108,7 +12099,7 @@
         <v>899</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="899" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12116,10 +12107,10 @@
         <v>900</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C899" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="900" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12130,7 +12121,7 @@
         <v>905</v>
       </c>
       <c r="C900" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="901" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12138,7 +12129,7 @@
         <v>902</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
